--- a/data accounts.xlsx
+++ b/data accounts.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\akunmu-netflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC079DB-43B2-47D6-9012-9FB5E25BFAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91027FC2-04CF-4C1E-A849-E929906F4B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{128195C6-0163-48B0-87D4-877A564BE923}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="16305" xr2:uid="{128195C6-0163-48B0-87D4-877A564BE923}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>email</t>
   </si>
@@ -37,25 +37,76 @@
     <t>aku1100</t>
   </si>
   <si>
-    <t>pux@frilsa.com</t>
-  </si>
-  <si>
-    <t>qna@frilsa.com</t>
-  </si>
-  <si>
-    <t>bmw@frilsa.com</t>
-  </si>
-  <si>
-    <t>deb@frilsa.com</t>
-  </si>
-  <si>
-    <t>vlh@frilsa.com</t>
-  </si>
-  <si>
-    <t>aku1101</t>
-  </si>
-  <si>
-    <t>oxo@frilsa.com</t>
+    <t>hbm@ffrilsa.com</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>hwz@frilsa.com</t>
+  </si>
+  <si>
+    <t>qci@frilsa.com</t>
+  </si>
+  <si>
+    <t>hrk@frilsa.com</t>
+  </si>
+  <si>
+    <t>ofq@frilsa.com</t>
+  </si>
+  <si>
+    <t>ptl@frilsa.com</t>
+  </si>
+  <si>
+    <t>puq@frilsa.com</t>
+  </si>
+  <si>
+    <t>cep@frilsa.com</t>
+  </si>
+  <si>
+    <t>jgd@rkive.space</t>
+  </si>
+  <si>
+    <t>fyn@rkive.space</t>
+  </si>
+  <si>
+    <t>nvm@rkive.space</t>
+  </si>
+  <si>
+    <t>dhk@rkive.space</t>
+  </si>
+  <si>
+    <t>kpl@rkive.space</t>
+  </si>
+  <si>
+    <t>dqp@rkive.space</t>
+  </si>
+  <si>
+    <t>xqg@rkive.space</t>
+  </si>
+  <si>
+    <t>wib@rkive.space</t>
+  </si>
+  <si>
+    <t>tko@frilsa.com</t>
+  </si>
+  <si>
+    <t>sjp@frilsa.com</t>
+  </si>
+  <si>
+    <t>guw@frilsa.com</t>
+  </si>
+  <si>
+    <t>tdv@frilsa.com</t>
+  </si>
+  <si>
+    <t>lrf@frilsa.com</t>
+  </si>
+  <si>
+    <t>awv@frilsa.com</t>
+  </si>
+  <si>
+    <t>lbo@frilsa.com</t>
   </si>
 </sst>
 </file>
@@ -424,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF4AEA-EDB1-4057-B50D-DE1136E77C8A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,77 +497,239 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3F4D5543-E9E2-4D24-B151-ED4A40693BD4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A6322F-01DD-44A1-9414-529DB310B2A3}">
-  <dimension ref="A2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1D8AE2-B8A3-4FC2-AE15-9DD839F7F045}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{29699D1C-FA73-480A-9150-7D1B5322DAFB}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CA57A0D6-563B-4A2D-ADDC-2B10DA8C1835}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{898C3BCA-8796-4C36-9B03-BC2BD56B8A25}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{6DC6FFBC-1E71-4C86-8631-7A7494FBFA61}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{23EA14BF-79F7-4EDB-9727-8F24A279A681}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{C2DE6AA2-13CE-4119-A0C4-8068D4E9A2D5}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{47180A02-6650-4B41-A90B-C3E9B6A9669D}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{D7BF0964-64AC-497B-BA58-DA850414AE3A}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{7EBF3E78-F9EC-4861-BF62-B9333D868A33}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{15255F4C-F154-4EF6-A72F-19236A619E76}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{CB48C317-4120-472D-9DA5-270BF91480A3}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{821B8E79-9ADA-4CFB-8541-1F76854D53E3}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{D87C0FF1-5D09-4A08-A46D-146BA583C171}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{49D5534D-5C8D-4FF5-AF7F-3298AAC75524}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{86145529-1CC5-4EA4-BAA0-FCD6115EA03A}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{DC3F6132-931D-4B63-BDA5-DAE2962F395B}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:hbm@ffrilsa.com%7Caku1100" xr:uid="{BBA26FE1-5801-4E95-B45D-D6DD81022104}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
